--- a/Software Comparador/Clientes/Javier.xlsx
+++ b/Software Comparador/Clientes/Javier.xlsx
@@ -1,135 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lrojas\Comparador\ComparadorLCM\Software Comparador\Clientes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAED665-1DAD-4C9F-BCD3-6CDC5080BD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja Referencia" sheetId="1" r:id="rId1"/>
-    <sheet name="000111" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja Referencia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="000111" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="555" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
-  <si>
-    <t>Información del calibrando</t>
-  </si>
-  <si>
-    <t>Objeto a calibrar:</t>
-  </si>
-  <si>
-    <t>Cantidad de bloques o instrumentos:</t>
-  </si>
-  <si>
-    <t>Marca del instrumento:</t>
-  </si>
-  <si>
-    <t>N° de serie del instrumento:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material: </t>
-  </si>
-  <si>
-    <t>Modelo:</t>
-  </si>
-  <si>
-    <t>Grado declarado:</t>
-  </si>
-  <si>
-    <t>Identificación interna:</t>
-  </si>
-  <si>
-    <t>Identificación de los bloques del juego</t>
-  </si>
-  <si>
-    <t>Nº</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitud nominal (pulg. / mm) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Número de identificación del bloque </t>
-  </si>
-  <si>
-    <t>Información del calibrando con identificación 000111</t>
-  </si>
-  <si>
-    <t>Juego de Bloques</t>
-  </si>
-  <si>
-    <t>Sartorius</t>
-  </si>
-  <si>
-    <t>000111</t>
-  </si>
-  <si>
-    <t>Cerámica</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>00-001</t>
-  </si>
-  <si>
-    <t>Longitud nominal (mm)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="20"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,7 +48,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -266,70 +173,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -629,146 +615,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="178" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="3" width="26.875" customWidth="1"/>
-    <col min="4" max="5" width="23.625" customWidth="1"/>
+    <col width="5.875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="26.875" customWidth="1" style="3" min="2" max="3"/>
+    <col width="23.625" customWidth="1" style="3" min="4" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+    <row r="1" ht="27" customHeight="1" s="3" thickBot="1">
+      <c r="A1" s="14" t="inlineStr">
+        <is>
+          <t>Información del calibrando</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="20" t="inlineStr">
+        <is>
+          <t>Objeto a calibrar:</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="15" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="17" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Cantidad de bloques o instrumentos:</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n"/>
+      <c r="E3" s="7" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Marca del instrumento:</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n"/>
+      <c r="E4" s="7" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>N° de serie del instrumento:</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Material: </t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n"/>
+      <c r="E6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Grado declarado:</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" s="3" thickBot="1">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Identificación interna:</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="12" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="13" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+    </row>
+    <row r="11" ht="26.25" customHeight="1" s="3">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Identificación de los bloques del juego</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Longitud nominal (pulg. / mm) </t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Número de identificación del bloque </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="11" t="n"/>
+      <c r="C13" s="11" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -799,221 +799,1011 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="3" width="26.875" customWidth="1"/>
-    <col min="4" max="5" width="23.625" customWidth="1"/>
+    <col width="5.875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="26.875" customWidth="1" style="3" min="2" max="3"/>
+    <col width="23.625" customWidth="1" style="3" min="4" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="Z1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="1" ht="27" customHeight="1" s="3" thickBot="1">
+      <c r="A1" s="14" t="inlineStr">
+        <is>
+          <t>Información del calibrando con identificación 000111</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="20" t="inlineStr">
+        <is>
+          <t>Objeto a calibrar:</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="15" t="inlineStr">
+        <is>
+          <t>Juego de Bloques</t>
+        </is>
+      </c>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="17" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Cantidad de bloques o instrumentos:</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Marca del instrumento:</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>Sartorius</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>N° de serie del instrumento:</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Material: </t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Cerámica</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Grado declarado:</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" s="3" thickBot="1">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Identificación interna:</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>00-001</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="13" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+    </row>
+    <row r="11" ht="26.25" customHeight="1" s="3">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Identificación de los bloques del juego</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>Longitud nominal (mm)</t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Número de identificación del bloque </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="11" t="n"/>
+      <c r="C13" s="11" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z500"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col width="5.875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="26.875" customWidth="1" style="3" min="2" max="3"/>
+    <col width="23.625" customWidth="1" style="3" min="4" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" customHeight="1" s="3" thickBot="1">
+      <c r="A1" s="14" t="inlineStr">
+        <is>
+          <t>Información del calibrando con identificación 555</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="20" t="inlineStr">
+        <is>
+          <t>Objeto a calibrar:</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="15" t="inlineStr">
+        <is>
+          <t>Juego de Bloques</t>
+        </is>
+      </c>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="17" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Cantidad de bloques o instrumentos:</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E3" s="7" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Marca del instrumento:</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>Mitutoyo</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>N° de serie del instrumento:</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Material: </t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>carburo de tungsteno</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Grado declarado:</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" s="3" thickBot="1">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Identificación interna:</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>111155</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="13" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+    </row>
+    <row r="11" ht="26.25" customHeight="1" s="3">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Identificación de los bloques del juego</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>Longitud nominal (mm)</t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Número de identificación del bloque </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="11" t="n"/>
+      <c r="C13" s="11" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-    </row>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="B12:B13"/>
